--- a/as-built_maps/Location_Movement_Inventory_AS-BUILT.xlsx
+++ b/as-built_maps/Location_Movement_Inventory_AS-BUILT.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27106"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Peter\Documents\Dropbox\as-built_maps\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/peter/servers/cspace-vagrant/sdmom-tenant-source/as-built_maps/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="28800" windowHeight="12090" tabRatio="764"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17280" tabRatio="764"/>
   </bookViews>
   <sheets>
     <sheet name="configuration and data map" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,15 @@
     <definedName name="Excel_BuiltIn__FilterDatabase" localSheetId="0">'configuration and data map'!$A$1:$O$3</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'configuration and data map'!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="145621" refMode="R1C1"/>
+  <calcPr calcId="145621" refMode="R1C1" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -661,13 +669,13 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
         <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
         <color auto="1"/>
@@ -682,7 +690,7 @@
         <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
         <color auto="1"/>
@@ -694,10 +702,10 @@
         <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
         <color auto="1"/>
@@ -706,7 +714,7 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
         <color auto="1"/>
@@ -724,7 +732,7 @@
         <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
         <color auto="1"/>
@@ -736,7 +744,7 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
         <color auto="1"/>
@@ -745,7 +753,7 @@
         <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -760,7 +768,7 @@
         <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -769,13 +777,13 @@
         <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
         <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1455,43 +1463,43 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:S45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K7" sqref="K7"/>
+      <selection pane="bottomLeft" activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="30.7109375" style="7" customWidth="1"/>
-    <col min="2" max="2" width="30.7109375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="30.7109375" style="4" customWidth="1"/>
-    <col min="4" max="5" width="15.7109375" style="6" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" style="5" customWidth="1"/>
+    <col min="1" max="1" width="30.6640625" style="7" customWidth="1"/>
+    <col min="2" max="2" width="30.6640625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="30.6640625" style="4" customWidth="1"/>
+    <col min="4" max="5" width="15.6640625" style="6" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" style="5" customWidth="1"/>
     <col min="7" max="7" width="21" style="5" customWidth="1"/>
-    <col min="8" max="8" width="28.85546875" style="5" customWidth="1"/>
-    <col min="9" max="10" width="15.7109375" style="5" customWidth="1"/>
-    <col min="11" max="11" width="30.7109375" style="3" customWidth="1"/>
-    <col min="12" max="12" width="21.140625" style="3" customWidth="1"/>
-    <col min="13" max="13" width="14.28515625" style="7" customWidth="1"/>
-    <col min="14" max="14" width="13.85546875" style="7" customWidth="1"/>
-    <col min="15" max="15" width="20.42578125" style="82" customWidth="1"/>
-    <col min="16" max="16" width="11.140625" style="7" customWidth="1"/>
-    <col min="17" max="17" width="12.85546875" style="7" customWidth="1"/>
-    <col min="18" max="18" width="28.140625" style="5" customWidth="1"/>
-    <col min="19" max="16384" width="20.7109375" style="7"/>
+    <col min="8" max="8" width="28.83203125" style="5" customWidth="1"/>
+    <col min="9" max="10" width="15.6640625" style="5" customWidth="1"/>
+    <col min="11" max="11" width="30.6640625" style="3" customWidth="1"/>
+    <col min="12" max="12" width="21.1640625" style="3" customWidth="1"/>
+    <col min="13" max="13" width="14.33203125" style="7" customWidth="1"/>
+    <col min="14" max="14" width="13.83203125" style="7" customWidth="1"/>
+    <col min="15" max="15" width="20.5" style="82" customWidth="1"/>
+    <col min="16" max="16" width="11.1640625" style="7" customWidth="1"/>
+    <col min="17" max="17" width="12.83203125" style="7" customWidth="1"/>
+    <col min="18" max="18" width="28.1640625" style="5" customWidth="1"/>
+    <col min="19" max="16384" width="20.6640625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" ht="20" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:19" s="9" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:19" s="9" customFormat="1" ht="39" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>33</v>
       </c>
@@ -1547,7 +1555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:19" ht="39" x14ac:dyDescent="0.15">
       <c r="A4" s="10" t="s">
         <v>1</v>
       </c>
@@ -1603,7 +1611,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="5" spans="1:19" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" s="19" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="8"/>
       <c r="B5" s="17"/>
       <c r="C5" s="18"/>
@@ -1623,7 +1631,7 @@
       <c r="Q5" s="17"/>
       <c r="R5" s="17"/>
     </row>
-    <row r="6" spans="1:19" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" ht="26" x14ac:dyDescent="0.15">
       <c r="A6" s="8"/>
       <c r="B6" s="8" t="s">
         <v>15</v>
@@ -1672,7 +1680,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:19" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" s="19" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="8"/>
       <c r="B7" s="17"/>
       <c r="C7" s="18"/>
@@ -1692,7 +1700,7 @@
       <c r="Q7" s="17"/>
       <c r="R7" s="17"/>
     </row>
-    <row r="8" spans="1:19" s="29" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" s="29" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A8" s="25"/>
       <c r="B8" s="26" t="s">
         <v>2</v>
@@ -1714,7 +1722,7 @@
       <c r="Q8" s="28"/>
       <c r="R8" s="28"/>
     </row>
-    <row r="9" spans="1:19" s="30" customFormat="1" ht="165.75" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" s="30" customFormat="1" ht="156" x14ac:dyDescent="0.15">
       <c r="B9" s="31" t="s">
         <v>2</v>
       </c>
@@ -1765,7 +1773,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="10" spans="1:19" s="30" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" s="30" customFormat="1" ht="39" x14ac:dyDescent="0.15">
       <c r="A10" s="31"/>
       <c r="B10" s="31" t="s">
         <v>6</v>
@@ -1817,7 +1825,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="11" spans="1:19" s="30" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" s="30" customFormat="1" ht="26" x14ac:dyDescent="0.15">
       <c r="A11" s="31"/>
       <c r="B11" s="31" t="s">
         <v>9</v>
@@ -1866,7 +1874,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A12" s="8"/>
       <c r="B12" s="8"/>
       <c r="C12" s="39"/>
@@ -1876,7 +1884,7 @@
       <c r="M12" s="8"/>
       <c r="N12" s="8"/>
     </row>
-    <row r="13" spans="1:19" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" ht="26" x14ac:dyDescent="0.15">
       <c r="A13" s="8"/>
       <c r="B13" s="8" t="s">
         <v>12</v>
@@ -1925,7 +1933,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A14" s="73"/>
       <c r="B14" s="73"/>
       <c r="C14" s="74"/>
@@ -1946,7 +1954,7 @@
       <c r="R14" s="47"/>
       <c r="S14" s="59"/>
     </row>
-    <row r="15" spans="1:19" s="80" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" s="80" customFormat="1" ht="26" x14ac:dyDescent="0.15">
       <c r="A15" s="78"/>
       <c r="B15" s="79" t="s">
         <v>113</v>
@@ -1999,7 +2007,7 @@
       </c>
       <c r="S15" s="21"/>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A16" s="76"/>
       <c r="B16" s="76"/>
       <c r="C16" s="77"/>
@@ -2020,7 +2028,7 @@
       <c r="R16" s="48"/>
       <c r="S16" s="62"/>
     </row>
-    <row r="17" spans="1:18" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:18" ht="52" x14ac:dyDescent="0.15">
       <c r="A17" s="10" t="s">
         <v>18</v>
       </c>
@@ -2074,7 +2082,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A18" s="8"/>
       <c r="B18" s="8"/>
       <c r="C18" s="39"/>
@@ -2089,7 +2097,7 @@
       <c r="M18" s="8"/>
       <c r="N18" s="8"/>
     </row>
-    <row r="19" spans="1:18" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:18" ht="39" x14ac:dyDescent="0.15">
       <c r="B19" s="8" t="s">
         <v>19</v>
       </c>
@@ -2108,8 +2116,8 @@
       <c r="G19" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="H19" s="22" t="s">
-        <v>100</v>
+      <c r="H19" s="23" t="s">
+        <v>109</v>
       </c>
       <c r="I19" s="5" t="s">
         <v>92</v>
@@ -2137,7 +2145,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A20" s="8"/>
       <c r="B20" s="8"/>
       <c r="C20" s="39"/>
@@ -2152,7 +2160,7 @@
       <c r="M20" s="8"/>
       <c r="N20" s="8"/>
     </row>
-    <row r="21" spans="1:18" s="14" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:18" s="14" customFormat="1" ht="26" x14ac:dyDescent="0.15">
       <c r="A21" s="11"/>
       <c r="B21" s="11" t="s">
         <v>21</v>
@@ -2204,7 +2212,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A22" s="8"/>
       <c r="B22" s="8"/>
       <c r="C22" s="39"/>
@@ -2212,7 +2220,7 @@
       <c r="M22" s="8"/>
       <c r="N22" s="8"/>
     </row>
-    <row r="23" spans="1:18" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:18" ht="39" x14ac:dyDescent="0.15">
       <c r="A23" s="8"/>
       <c r="B23" s="8" t="s">
         <v>27</v>
@@ -2264,7 +2272,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A24" s="8"/>
       <c r="B24" s="8"/>
       <c r="C24" s="39"/>
@@ -2272,7 +2280,7 @@
       <c r="M24" s="8"/>
       <c r="N24" s="8"/>
     </row>
-    <row r="25" spans="1:18" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:18" ht="26" x14ac:dyDescent="0.15">
       <c r="A25" s="8"/>
       <c r="B25" s="8" t="s">
         <v>29</v>
@@ -2324,7 +2332,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A26" s="8"/>
       <c r="B26" s="8"/>
       <c r="C26" s="39"/>
@@ -2332,7 +2340,7 @@
       <c r="M26" s="8"/>
       <c r="N26" s="8"/>
     </row>
-    <row r="27" spans="1:18" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:18" ht="52" x14ac:dyDescent="0.15">
       <c r="A27" s="8"/>
       <c r="B27" s="8" t="s">
         <v>24</v>
@@ -2384,10 +2392,10 @@
         <v>93</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.15">
       <c r="B28" s="7"/>
     </row>
-    <row r="29" spans="1:18" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:18" ht="39" x14ac:dyDescent="0.15">
       <c r="A29" s="57" t="s">
         <v>46</v>
       </c>
@@ -2440,7 +2448,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="31" spans="1:18" ht="51" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:18" ht="39" x14ac:dyDescent="0.15">
       <c r="B31" s="3" t="s">
         <v>48</v>
       </c>
@@ -2490,7 +2498,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="33" spans="1:18" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:18" ht="26" x14ac:dyDescent="0.15">
       <c r="B33" s="3" t="s">
         <v>49</v>
       </c>
@@ -2540,7 +2548,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="35" spans="1:18" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:18" ht="26" x14ac:dyDescent="0.15">
       <c r="B35" s="3" t="s">
         <v>50</v>
       </c>
@@ -2590,7 +2598,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="37" spans="1:18" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:18" ht="26" x14ac:dyDescent="0.15">
       <c r="B37" s="3" t="s">
         <v>51</v>
       </c>
@@ -2640,7 +2648,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="39" spans="1:18" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:18" ht="26" x14ac:dyDescent="0.15">
       <c r="B39" s="3" t="s">
         <v>52</v>
       </c>
@@ -2690,12 +2698,12 @@
         <v>93</v>
       </c>
     </row>
-    <row r="41" spans="1:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:18" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A41" s="59"/>
       <c r="B41" s="60"/>
       <c r="C41" s="61"/>
     </row>
-    <row r="42" spans="1:18" s="41" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:18" s="41" customFormat="1" ht="26" x14ac:dyDescent="0.15">
       <c r="A42" s="65" t="s">
         <v>60</v>
       </c>
@@ -2719,7 +2727,7 @@
       <c r="Q42" s="42"/>
       <c r="R42" s="83"/>
     </row>
-    <row r="43" spans="1:18" s="41" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:18" s="41" customFormat="1" ht="26" x14ac:dyDescent="0.15">
       <c r="A43" s="68" t="s">
         <v>62</v>
       </c>
@@ -2743,7 +2751,7 @@
       <c r="Q43" s="42"/>
       <c r="R43" s="83"/>
     </row>
-    <row r="44" spans="1:18" s="41" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:18" s="41" customFormat="1" ht="27" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A44" s="70" t="s">
         <v>64</v>
       </c>
@@ -2767,7 +2775,7 @@
       <c r="Q44" s="42"/>
       <c r="R44" s="83"/>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A45" s="62"/>
       <c r="B45" s="63"/>
       <c r="C45" s="64"/>
@@ -2783,7 +2791,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1"/>
@@ -2792,7 +2800,7 @@
       <selection activeCell="V15" sqref="V15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555551" footer="0.51180555555555551"/>
